--- a/src/assets/data/ryuutama items.xlsx
+++ b/src/assets/data/ryuutama items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bizen\WebstormProjects\A-Quartermaster\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC07B61B-C24A-4D7E-8294-ECED29348E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A52AF-36D4-46EE-B706-B564CD39E15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="9" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="274">
   <si>
     <t>A type of melon that thrives in grottos of dried wood. From its leaves to its roots, even its fruit is well known for being jet black. It has the distinct odor of cheese. Really stinky cheese.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2484,8 +2484,8 @@
   <sheetPr published="0"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2505,8 +2505,8 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>100</v>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>76</v>
@@ -2522,8 +2522,8 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>100</v>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>77</v>
@@ -2573,8 +2573,8 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>100</v>
+      <c r="E6">
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -2670,7 +2670,7 @@
   <sheetPr published="0"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/src/assets/data/ryuutama items.xlsx
+++ b/src/assets/data/ryuutama items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bizen\WebstormProjects\A-Quartermaster\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A52AF-36D4-46EE-B706-B564CD39E15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17E9B95-9460-4EAD-9378-18593553A5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="9" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="276">
   <si>
     <t>A type of melon that thrives in grottos of dried wood. From its leaves to its roots, even its fruit is well known for being jet black. It has the distinct odor of cheese. Really stinky cheese.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -871,13 +871,19 @@
   </si>
   <si>
     <t>Dodge: 9</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>The unconscious (or worse?) body of a fallen character or NPC. Time to take them back to town for healing...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -895,6 +901,11 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -918,11 +929,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1261,10 +1273,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr published="0"/>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1655,624 +1667,618 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C32">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33">
+        <v>70</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>164</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>5</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>166</v>
-      </c>
-      <c r="C35">
-        <v>500</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C37">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C39">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C42">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D42">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C43">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>1500</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C45">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C46">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C48">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C49">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C50">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C51">
         <v>300</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52">
+        <v>300</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>101</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>1000</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>5</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>186</v>
-      </c>
-      <c r="C54">
-        <v>40</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C55">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C56">
+        <v>50</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
         <v>120</v>
-      </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-      <c r="E56" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C57">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="C58">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D58">
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C59">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C60">
-        <v>450</v>
+        <v>20</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>450</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C62">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63">
+        <v>100</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>142</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <v>10</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>122</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <v>100</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
         <v>124</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <v>500</v>
       </c>
-      <c r="D66">
+      <c r="D67">
         <v>3</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>126</v>
       </c>
-      <c r="C67">
+      <c r="C68">
         <v>1000</v>
       </c>
-      <c r="D67">
+      <c r="D68">
         <v>5</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="70" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>128</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>400</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
-        <v>129</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>130</v>
-      </c>
-      <c r="C70">
-        <v>700</v>
-      </c>
       <c r="D70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E70" t="s">
         <v>129</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="C71">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>241</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C72">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -2281,21 +2287,21 @@
         <v>80</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C73">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -2304,49 +2310,49 @@
         <v>80</v>
       </c>
       <c r="F73" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74">
+        <v>750</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>80</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="76" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>83</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <v>50</v>
-      </c>
-      <c r="D75">
-        <v>3</v>
-      </c>
-      <c r="E75" t="s">
-        <v>84</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76">
-        <v>900</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -2355,44 +2361,44 @@
         <v>84</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>252</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E77" t="s">
         <v>84</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="D78">
         <v>5</v>
@@ -2401,52 +2407,49 @@
         <v>84</v>
       </c>
       <c r="F78" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79">
+        <v>10000</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>84</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80">
-        <v>400</v>
-      </c>
-      <c r="D80">
-        <v>3</v>
-      </c>
-      <c r="E80" t="s">
-        <v>129</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="81" spans="2:9" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="C81">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -2455,15 +2458,41 @@
         <v>129</v>
       </c>
       <c r="F81" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C82">
+        <v>1200</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>129</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G82" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I82" s="1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2484,7 +2513,7 @@
   <sheetPr published="0"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/src/assets/data/ryuutama items.xlsx
+++ b/src/assets/data/ryuutama items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bizen\WebstormProjects\A-Quartermaster\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17E9B95-9460-4EAD-9378-18593553A5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837BDB1F-12DA-40FE-BAAF-11C1EBEB2F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
